--- a/menu_list(241028).xlsx
+++ b/menu_list(241028).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python-RAG\문서기반QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_rag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A151CC2-35DA-4050-8FE7-F48816BBCCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{52458717-8852-4F59-B1F4-79D37A35DDCA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="137">
   <si>
     <t>main_list</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,14 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>위험물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건축 &amp; 피난</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화재안전기준(수계)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,18 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>위험물안전관리법 시행규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위험물안전관리법 시행령</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위험물안전관리법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이산화탄소소화설비의 화재안전기술기준(NFTC 106)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,15 +379,6 @@
     <t>https://wiki.inplat.org/kfpa/64a43f8092bca8f64ed40156</t>
   </si>
   <si>
-    <t>https://wiki.inplat.org/kfpa/64a43f8092bca8f64ed40162</t>
-  </si>
-  <si>
-    <t>https://wiki.inplat.org/kfpa/64a43f8092bca8f64ed40179</t>
-  </si>
-  <si>
-    <t>https://wiki.inplat.org/kfpa/64a43f8092bca8f64ed40178</t>
-  </si>
-  <si>
     <t>https://wiki.inplat.org/kfpa/64a43f8092bca8f64ed40106</t>
   </si>
   <si>
@@ -533,12 +503,28 @@
   </si>
   <si>
     <t>https://wiki.inplat.org/kfpa/64a43f8092bca8f64ed40161</t>
+  </si>
+  <si>
+    <t>건축_피난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소방시설_설치대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wiki.inplat.org/kfpa/63ca26d352e78e1b542586d6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소방시설 설치 및 관리에 관한 법률 시행령 [별표 4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -618,7 +604,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{7EB86C5F-F2A9-4173-A2D6-61448B982DFB}"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -929,11 +915,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02ED96B-F701-43F6-8923-2E696C244405}">
-  <dimension ref="A1:C66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -959,10 +945,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -970,10 +956,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -981,10 +967,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -992,10 +978,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1003,252 +989,252 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1256,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>103</v>
@@ -1267,7 +1253,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>104</v>
@@ -1275,186 +1261,186 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>129</v>
@@ -1462,10 +1448,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>130</v>
@@ -1473,46 +1459,46 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1520,10 +1506,10 @@
         <v>6</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1531,54 +1517,54 @@
         <v>6</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1586,10 +1572,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1597,87 +1583,66 @@
         <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B66">
+  <sortState ref="A2:B66">
     <sortCondition ref="A2:A66"/>
     <sortCondition ref="B2:B66"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{FFB7DB7E-A04F-4B8E-9EF5-1F755B543C36}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>